--- a/Encuestas/Encuestas_FrasesyTemas_muestra_textolibre.xlsx
+++ b/Encuestas/Encuestas_FrasesyTemas_muestra_textolibre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\nlp - pruebas\pruebas-NLP\Encuestas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\nlp---pruebas2\Encuestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFD9DA4-62C2-440C-A1D6-5B941CBBF4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC194BC3-B015-45D2-9201-67442B2C2689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15A890DA-4402-49ED-8C96-18CA9951A641}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{15A890DA-4402-49ED-8C96-18CA9951A641}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10271" uniqueCount="3916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10285" uniqueCount="3916">
   <si>
     <t>comentario</t>
   </si>
@@ -12672,8 +12672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B302A021-3719-491C-B1A6-1529F63F53E2}">
   <dimension ref="A1:D4640"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23061,6 +23061,9 @@
       <c r="A944" t="s">
         <v>3890</v>
       </c>
+      <c r="B944" t="s">
+        <v>3895</v>
+      </c>
       <c r="D944" t="s">
         <v>782</v>
       </c>
@@ -23069,6 +23072,9 @@
       <c r="A945" t="s">
         <v>3890</v>
       </c>
+      <c r="B945" t="s">
+        <v>2002</v>
+      </c>
       <c r="D945" t="s">
         <v>783</v>
       </c>
@@ -23077,6 +23083,9 @@
       <c r="A946" t="s">
         <v>3890</v>
       </c>
+      <c r="B946" t="s">
+        <v>1226</v>
+      </c>
       <c r="D946" t="s">
         <v>26</v>
       </c>
@@ -23085,6 +23094,9 @@
       <c r="A947" t="s">
         <v>3890</v>
       </c>
+      <c r="B947" t="s">
+        <v>2000</v>
+      </c>
       <c r="D947" t="s">
         <v>784</v>
       </c>
@@ -23093,6 +23105,9 @@
       <c r="A948" t="s">
         <v>3890</v>
       </c>
+      <c r="B948" t="s">
+        <v>2003</v>
+      </c>
       <c r="D948" t="s">
         <v>785</v>
       </c>
@@ -23101,6 +23116,9 @@
       <c r="A949" t="s">
         <v>3890</v>
       </c>
+      <c r="B949" t="s">
+        <v>2002</v>
+      </c>
       <c r="D949" t="s">
         <v>786</v>
       </c>
@@ -23109,6 +23127,9 @@
       <c r="A950" t="s">
         <v>3890</v>
       </c>
+      <c r="B950" t="s">
+        <v>3895</v>
+      </c>
       <c r="D950" t="s">
         <v>787</v>
       </c>
@@ -23117,6 +23138,9 @@
       <c r="A951" t="s">
         <v>3890</v>
       </c>
+      <c r="B951" t="s">
+        <v>3896</v>
+      </c>
       <c r="D951" t="s">
         <v>788</v>
       </c>
@@ -23125,6 +23149,9 @@
       <c r="A952" t="s">
         <v>3890</v>
       </c>
+      <c r="B952" t="s">
+        <v>1226</v>
+      </c>
       <c r="D952" t="s">
         <v>5</v>
       </c>
@@ -23133,6 +23160,9 @@
       <c r="A953" t="s">
         <v>3890</v>
       </c>
+      <c r="B953" t="s">
+        <v>1226</v>
+      </c>
       <c r="D953" t="s">
         <v>28</v>
       </c>
@@ -23141,6 +23171,9 @@
       <c r="A954" t="s">
         <v>3890</v>
       </c>
+      <c r="B954" t="s">
+        <v>2001</v>
+      </c>
       <c r="D954" t="s">
         <v>789</v>
       </c>
@@ -23149,6 +23182,9 @@
       <c r="A955" t="s">
         <v>3890</v>
       </c>
+      <c r="B955" t="s">
+        <v>3895</v>
+      </c>
       <c r="D955" t="s">
         <v>790</v>
       </c>
@@ -23157,6 +23193,9 @@
       <c r="A956" t="s">
         <v>3890</v>
       </c>
+      <c r="B956" t="s">
+        <v>3892</v>
+      </c>
       <c r="D956" t="s">
         <v>791</v>
       </c>
@@ -23164,6 +23203,9 @@
     <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>3890</v>
+      </c>
+      <c r="B957" t="s">
+        <v>2001</v>
       </c>
       <c r="D957" t="s">
         <v>792</v>
@@ -52766,11 +52808,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D4591" xr:uid="{B302A021-3719-491C-B1A6-1529F63F53E2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4591">
-      <sortCondition ref="B1:B4591"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -52793,8 +52830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537425AC-5297-4AE4-951A-DDE1C509DC6A}">
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
